--- a/selectors.xlsx
+++ b/selectors.xlsx
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5449438202247191</v>
+        <v>0.6910112359550562</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5561797752808989</v>
+        <v>0.5842696629213483</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5056179775280899</v>
+        <v>0.5112359550561798</v>
       </c>
     </row>
     <row r="10" spans="1:4">
